--- a/A pricing simulator.xlsx
+++ b/A pricing simulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sanjana SM\OneDrive\New folder\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C794CAC5-A8A2-4386-9F96-19F034809AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1F9DB3-194E-48A9-A519-354099653135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="5" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -233,7 +233,7 @@
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,13 +291,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -373,7 +366,6 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -2375,6 +2367,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-15AD-400C-9A2E-B698DA72E04B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2390,6 +2387,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-15AD-400C-9A2E-B698DA72E04B}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -7983,8 +7985,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>158338</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Demand Trend  1">
@@ -8007,7 +8009,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -9965,7 +9967,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C0851A9-9A72-49F6-94D4-5C49126E9D39}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C0851A9-9A72-49F6-94D4-5C49126E9D39}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -10431,7 +10433,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10489,19 +10491,19 @@
       </c>
     </row>
     <row r="19" spans="18:19" x14ac:dyDescent="0.3">
-      <c r="R19" s="18" t="s">
+      <c r="R19" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="17">
         <f>COUNTIF(Pricing_Table!R1:R30,"Too Expensive")</f>
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="18:19" x14ac:dyDescent="0.3">
-      <c r="R20" s="18" t="s">
+      <c r="R20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="17">
         <f>COUNTIF(Pricing_Table!R1:R30,"OK")</f>
         <v>19</v>
       </c>
@@ -10524,14 +10526,14 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="7" max="7" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" customWidth="1"/>
@@ -10607,10 +10609,10 @@
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="12">
         <v>2697</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="12">
         <f>B2*1.1</f>
         <v>2966.7000000000003</v>
       </c>
@@ -10657,14 +10659,14 @@
       <c r="O2" s="15">
         <v>45678</v>
       </c>
-      <c r="P2" s="17">
+      <c r="P2" s="14">
         <v>1764.52</v>
       </c>
-      <c r="Q2" s="17">
+      <c r="Q2" s="14">
         <f>M2-P2</f>
         <v>608.16574999999966</v>
       </c>
-      <c r="R2" s="19" t="str">
+      <c r="R2" s="18" t="str">
         <f>IF(M2 &gt; G2 * 1.15,"Too Expensive","OK")</f>
         <v>OK</v>
       </c>
@@ -10673,10 +10675,10 @@
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="12">
         <v>1353</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="12">
         <f t="shared" ref="C3:C30" si="2">B3*1.1</f>
         <v>1488.3000000000002</v>
       </c>
@@ -10723,14 +10725,14 @@
       <c r="O3" s="15">
         <v>45702</v>
       </c>
-      <c r="P3" s="17">
+      <c r="P3" s="14">
         <v>1012.91</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3" s="14">
         <f t="shared" ref="Q3:Q30" si="7">M3-P3</f>
         <v>543.03999999999985</v>
       </c>
-      <c r="R3" s="19" t="str">
+      <c r="R3" s="18" t="str">
         <f t="shared" ref="R3:R30" si="8">IF(M3 &gt; G3 * 1.15,"Too Expensive","OK")</f>
         <v>Too Expensive</v>
       </c>
@@ -10739,10 +10741,10 @@
       <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>251</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="12">
         <f t="shared" si="2"/>
         <v>276.10000000000002</v>
       </c>
@@ -10789,14 +10791,14 @@
       <c r="O4" s="15">
         <v>45719</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="14">
         <v>163.15</v>
       </c>
-      <c r="Q4" s="17">
+      <c r="Q4" s="14">
         <f t="shared" si="7"/>
         <v>148.59199999999996</v>
       </c>
-      <c r="R4" s="19" t="str">
+      <c r="R4" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -10805,10 +10807,10 @@
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>1432</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <f t="shared" si="2"/>
         <v>1575.2</v>
       </c>
@@ -10855,14 +10857,14 @@
       <c r="O5" s="15">
         <v>45715</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="14">
         <v>1044.6400000000001</v>
       </c>
-      <c r="Q5" s="17">
+      <c r="Q5" s="14">
         <f t="shared" si="7"/>
         <v>458.96000000000004</v>
       </c>
-      <c r="R5" s="19" t="str">
+      <c r="R5" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -10871,10 +10873,10 @@
       <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>2330</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="12">
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
@@ -10921,14 +10923,14 @@
       <c r="O6" s="15">
         <v>45748</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="14">
         <v>1512.9</v>
       </c>
-      <c r="Q6" s="17">
+      <c r="Q6" s="14">
         <f t="shared" si="7"/>
         <v>1255.1399999999999</v>
       </c>
-      <c r="R6" s="19" t="str">
+      <c r="R6" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -10937,10 +10939,10 @@
       <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>2248</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="12">
         <f t="shared" si="2"/>
         <v>2472.8000000000002</v>
       </c>
@@ -10987,14 +10989,14 @@
       <c r="O7" s="15">
         <v>45789</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="14">
         <v>1464</v>
       </c>
-      <c r="Q7" s="17">
+      <c r="Q7" s="14">
         <f t="shared" si="7"/>
         <v>1132.4400000000005</v>
       </c>
-      <c r="R7" s="19" t="str">
+      <c r="R7" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11003,10 +11005,10 @@
       <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>1441</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="12">
         <f t="shared" si="2"/>
         <v>1585.1000000000001</v>
       </c>
@@ -11053,14 +11055,14 @@
       <c r="O8" s="15">
         <v>45695</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="14">
         <v>1117.98</v>
       </c>
-      <c r="Q8" s="17">
+      <c r="Q8" s="14">
         <f t="shared" si="7"/>
         <v>94.621499999999969</v>
       </c>
-      <c r="R8" s="19" t="str">
+      <c r="R8" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11069,10 +11071,10 @@
       <c r="A9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>1459</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="12">
         <f t="shared" si="2"/>
         <v>1604.9</v>
       </c>
@@ -11119,14 +11121,14 @@
       <c r="O9" s="15">
         <v>45770</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="14">
         <v>973.47</v>
       </c>
-      <c r="Q9" s="17">
+      <c r="Q9" s="14">
         <f t="shared" si="7"/>
         <v>536.59500000000003</v>
       </c>
-      <c r="R9" s="19" t="str">
+      <c r="R9" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11135,10 +11137,10 @@
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>1832</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="12">
         <f t="shared" si="2"/>
         <v>2015.2000000000003</v>
       </c>
@@ -11185,14 +11187,14 @@
       <c r="O10" s="15">
         <v>45818</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="14">
         <v>1284.96</v>
       </c>
-      <c r="Q10" s="17">
+      <c r="Q10" s="14">
         <f t="shared" si="7"/>
         <v>638.6400000000001</v>
       </c>
-      <c r="R10" s="19" t="str">
+      <c r="R10" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11201,10 +11203,10 @@
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>1396</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="12">
         <f t="shared" si="2"/>
         <v>1535.6000000000001</v>
       </c>
@@ -11251,14 +11253,14 @@
       <c r="O11" s="15">
         <v>45674</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="14">
         <v>1070.68</v>
       </c>
-      <c r="Q11" s="17">
+      <c r="Q11" s="14">
         <f t="shared" si="7"/>
         <v>663.15199999999982</v>
       </c>
-      <c r="R11" s="19" t="str">
+      <c r="R11" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -11267,10 +11269,10 @@
       <c r="A12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>1593</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="12">
         <f t="shared" si="2"/>
         <v>1752.3000000000002</v>
       </c>
@@ -11317,14 +11319,14 @@
       <c r="O12" s="15">
         <v>46018</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="14">
         <v>1076.31</v>
       </c>
-      <c r="Q12" s="17">
+      <c r="Q12" s="14">
         <f t="shared" si="7"/>
         <v>938.83500000000004</v>
       </c>
-      <c r="R12" s="19" t="str">
+      <c r="R12" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -11333,10 +11335,10 @@
       <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>2942</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="12">
         <f t="shared" si="2"/>
         <v>3236.2000000000003</v>
       </c>
@@ -11383,14 +11385,14 @@
       <c r="O13" s="15">
         <v>45663</v>
       </c>
-      <c r="P13" s="17">
+      <c r="P13" s="14">
         <v>2059.4</v>
       </c>
-      <c r="Q13" s="17">
+      <c r="Q13" s="14">
         <f t="shared" si="7"/>
         <v>985.56999999999971</v>
       </c>
-      <c r="R13" s="19" t="str">
+      <c r="R13" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11399,10 +11401,10 @@
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>1290</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="12">
         <f t="shared" si="2"/>
         <v>1419.0000000000002</v>
       </c>
@@ -11449,14 +11451,14 @@
       <c r="O14" s="15">
         <v>45697</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="14">
         <v>838.5</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="Q14" s="14">
         <f t="shared" si="7"/>
         <v>864.30000000000018</v>
       </c>
-      <c r="R14" s="19" t="str">
+      <c r="R14" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -11465,10 +11467,10 @@
       <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>2655</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="12">
         <f t="shared" si="2"/>
         <v>2920.5000000000005</v>
       </c>
@@ -11515,14 +11517,14 @@
       <c r="O15" s="15">
         <v>45734</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="14">
         <v>1726.2</v>
       </c>
-      <c r="Q15" s="17">
+      <c r="Q15" s="14">
         <f t="shared" si="7"/>
         <v>1284.57</v>
       </c>
-      <c r="R15" s="19" t="str">
+      <c r="R15" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11531,10 +11533,10 @@
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>2924</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="12">
         <f t="shared" si="2"/>
         <v>3216.4</v>
       </c>
@@ -11581,14 +11583,14 @@
       <c r="O16" s="15">
         <v>45741</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="14">
         <v>2048.52</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="14">
         <f t="shared" si="7"/>
         <v>1267.2960000000003</v>
       </c>
-      <c r="R16" s="19" t="str">
+      <c r="R16" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11597,10 +11599,10 @@
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>2975</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="12">
         <f t="shared" si="2"/>
         <v>3272.5000000000005</v>
       </c>
@@ -11647,14 +11649,14 @@
       <c r="O17" s="15">
         <v>45751</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="14">
         <v>1784.95</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="14">
         <f t="shared" si="7"/>
         <v>1963.55</v>
       </c>
-      <c r="R17" s="19" t="str">
+      <c r="R17" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -11663,10 +11665,10 @@
       <c r="A18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>907</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="12">
         <f t="shared" si="2"/>
         <v>997.7</v>
       </c>
@@ -11713,14 +11715,14 @@
       <c r="O18" s="15">
         <v>45763</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="14">
         <v>634.9</v>
       </c>
-      <c r="Q18" s="17">
+      <c r="Q18" s="14">
         <f t="shared" si="7"/>
         <v>491.59399999999994</v>
       </c>
-      <c r="R18" s="19" t="str">
+      <c r="R18" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11729,10 +11731,10 @@
       <c r="A19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>1623</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="12">
         <f t="shared" si="2"/>
         <v>1785.3000000000002</v>
       </c>
@@ -11779,14 +11781,14 @@
       <c r="O19" s="15">
         <v>45806</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="14">
         <v>1250.01</v>
       </c>
-      <c r="Q19" s="17">
+      <c r="Q19" s="14">
         <f t="shared" si="7"/>
         <v>429.79499999999985</v>
       </c>
-      <c r="R19" s="19" t="str">
+      <c r="R19" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -11795,10 +11797,10 @@
       <c r="A20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>1931</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="12">
         <f t="shared" si="2"/>
         <v>2124.1000000000004</v>
       </c>
@@ -11845,14 +11847,14 @@
       <c r="O20" s="15">
         <v>45813</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="14">
         <v>1487.57</v>
       </c>
-      <c r="Q20" s="17">
+      <c r="Q20" s="14">
         <f t="shared" si="7"/>
         <v>733.0799999999997</v>
       </c>
-      <c r="R20" s="19" t="str">
+      <c r="R20" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -11861,10 +11863,10 @@
       <c r="A21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>2853</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <f t="shared" si="2"/>
         <v>3138.3</v>
       </c>
@@ -11911,14 +11913,14 @@
       <c r="O21" s="15">
         <v>45832</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="14">
         <v>2253.42</v>
       </c>
-      <c r="Q21" s="17">
+      <c r="Q21" s="14">
         <f t="shared" si="7"/>
         <v>1290.0059999999994</v>
       </c>
-      <c r="R21" s="19" t="str">
+      <c r="R21" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -11927,10 +11929,10 @@
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>144</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="12">
         <f t="shared" si="2"/>
         <v>158.4</v>
       </c>
@@ -11977,14 +11979,14 @@
       <c r="O22" s="15">
         <v>45838</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="14">
         <v>103.68</v>
       </c>
-      <c r="Q22" s="17">
+      <c r="Q22" s="14">
         <f t="shared" si="7"/>
         <v>32.400000000000006</v>
       </c>
-      <c r="R22" s="19" t="str">
+      <c r="R22" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -11993,10 +11995,10 @@
       <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>2681</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="12">
         <f t="shared" si="2"/>
         <v>2949.1000000000004</v>
       </c>
@@ -12043,14 +12045,14 @@
       <c r="O23" s="15">
         <v>45840</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="14">
         <v>1878.46</v>
       </c>
-      <c r="Q23" s="17">
+      <c r="Q23" s="14">
         <f t="shared" si="7"/>
         <v>1513.0049999999997</v>
       </c>
-      <c r="R23" s="19" t="str">
+      <c r="R23" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -12059,10 +12061,10 @@
       <c r="A24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>2323</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="12">
         <f t="shared" si="2"/>
         <v>2555.3000000000002</v>
       </c>
@@ -12109,14 +12111,14 @@
       <c r="O24" s="15">
         <v>45853</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="14">
         <v>1567.64</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="Q24" s="14">
         <f t="shared" si="7"/>
         <v>1359.34</v>
       </c>
-      <c r="R24" s="19" t="str">
+      <c r="R24" s="18" t="str">
         <f t="shared" si="8"/>
         <v>Too Expensive</v>
       </c>
@@ -12125,10 +12127,10 @@
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>1614</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="12">
         <f t="shared" si="2"/>
         <v>1775.4</v>
       </c>
@@ -12175,14 +12177,14 @@
       <c r="O25" s="15">
         <v>45875</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="14">
         <v>1177.44</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="Q25" s="14">
         <f t="shared" si="7"/>
         <v>331.65000000000009</v>
       </c>
-      <c r="R25" s="19" t="str">
+      <c r="R25" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -12191,10 +12193,10 @@
       <c r="A26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>2114</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="12">
         <f t="shared" si="2"/>
         <v>2325.4</v>
       </c>
@@ -12241,14 +12243,14 @@
       <c r="O26" s="15">
         <v>45887</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="14">
         <v>1433.52</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="Q26" s="14">
         <f t="shared" si="7"/>
         <v>264.55050000000006</v>
       </c>
-      <c r="R26" s="19" t="str">
+      <c r="R26" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -12257,10 +12259,10 @@
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>2504</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <f t="shared" si="2"/>
         <v>2754.4</v>
       </c>
@@ -12307,14 +12309,14 @@
       <c r="O27" s="15">
         <v>45901</v>
       </c>
-      <c r="P27" s="17">
+      <c r="P27" s="14">
         <v>1627.6</v>
       </c>
-      <c r="Q27" s="17">
+      <c r="Q27" s="14">
         <f t="shared" si="7"/>
         <v>1527.4400000000005</v>
       </c>
-      <c r="R27" s="19" t="str">
+      <c r="R27" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -12323,10 +12325,10 @@
       <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>214</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <f t="shared" si="2"/>
         <v>235.4</v>
       </c>
@@ -12373,14 +12375,14 @@
       <c r="O28" s="15">
         <v>45923</v>
       </c>
-      <c r="P28" s="17">
+      <c r="P28" s="14">
         <v>149.80000000000001</v>
       </c>
-      <c r="Q28" s="17">
+      <c r="Q28" s="14">
         <f t="shared" si="7"/>
         <v>85.6</v>
       </c>
-      <c r="R28" s="19" t="str">
+      <c r="R28" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -12389,10 +12391,10 @@
       <c r="A29" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>622</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <f t="shared" si="2"/>
         <v>684.2</v>
       </c>
@@ -12439,14 +12441,14 @@
       <c r="O29" s="15">
         <v>45933</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="14">
         <v>435.4</v>
       </c>
-      <c r="Q29" s="17">
+      <c r="Q29" s="14">
         <f t="shared" si="7"/>
         <v>208.37</v>
       </c>
-      <c r="R29" s="19" t="str">
+      <c r="R29" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -12455,10 +12457,10 @@
       <c r="A30" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>1138</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <f t="shared" si="2"/>
         <v>1251.8000000000002</v>
       </c>
@@ -12505,14 +12507,14 @@
       <c r="O30" s="15">
         <v>45973</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="14">
         <v>796.6</v>
       </c>
-      <c r="Q30" s="17">
+      <c r="Q30" s="14">
         <f t="shared" si="7"/>
         <v>161.02700000000016</v>
       </c>
-      <c r="R30" s="19" t="str">
+      <c r="R30" s="18" t="str">
         <f t="shared" si="8"/>
         <v>OK</v>
       </c>
@@ -12577,8 +12579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5D0A34-219C-40A5-AFA2-ECF8FED8B47E}">
   <dimension ref="A3:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12853,7 +12855,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
